--- a/Fase 2/Evidencias Proyecto/Sprint Planning  - Proyecto Biblioteca El pimiento.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprint Planning  - Proyecto Biblioteca El pimiento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
   <si>
     <t>Desarrollo ágil: Sprint Plannig - Proyecto Biblioteca El pimiento</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Editar libros</t>
   </si>
   <si>
-    <t>Atrasado</t>
-  </si>
-  <si>
     <t>Eliminar libros</t>
   </si>
   <si>
@@ -141,46 +138,49 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Gestionar catálogos</t>
+    <t>Crear autor</t>
   </si>
   <si>
     <t>No empezado</t>
   </si>
   <si>
+    <t>Crear categoria</t>
+  </si>
+  <si>
+    <t>Crear genero</t>
+  </si>
+  <si>
+    <t>Crear editorial</t>
+  </si>
+  <si>
+    <t>Crear repisas</t>
+  </si>
+  <si>
+    <t>Filtro categorias</t>
+  </si>
+  <si>
+    <t>Filtro generos</t>
+  </si>
+  <si>
+    <t>Ver el horario de atención</t>
+  </si>
+  <si>
+    <t>Consultar la misión y visión de la biblioteca</t>
+  </si>
+  <si>
+    <t>Consultar la ubicación de la biblioteca</t>
+  </si>
+  <si>
+    <t>adaptabilidad a celulares</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Marcha blanca</t>
+  </si>
+  <si>
     <t>Sin asignar</t>
-  </si>
-  <si>
-    <t>Crear autor</t>
-  </si>
-  <si>
-    <t>Crear editorial</t>
-  </si>
-  <si>
-    <t>Crear categoria</t>
-  </si>
-  <si>
-    <t>Crear genero</t>
-  </si>
-  <si>
-    <t>Crear repisas</t>
-  </si>
-  <si>
-    <t>Ver el horario de atención</t>
-  </si>
-  <si>
-    <t>Consultar la misión y visión de la biblioteca</t>
-  </si>
-  <si>
-    <t>Consultar la ubicación de la biblioteca</t>
-  </si>
-  <si>
-    <t>adaptabilidad a celulares</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Marcha blanca</t>
   </si>
   <si>
     <t>Pruebas de preproducción</t>
@@ -573,7 +573,7 @@
     <xf borderId="8" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -812,11 +812,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="693989392"/>
-        <c:axId val="1330791878"/>
+        <c:axId val="2119774007"/>
+        <c:axId val="1168089451"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="693989392"/>
+        <c:axId val="2119774007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,10 +868,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1330791878"/>
+        <c:crossAx val="1168089451"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1330791878"/>
+        <c:axId val="1168089451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693989392"/>
+        <c:crossAx val="2119774007"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1133,11 +1133,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="241687447"/>
-        <c:axId val="1266633748"/>
+        <c:axId val="1818527385"/>
+        <c:axId val="989658468"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241687447"/>
+        <c:axId val="1818527385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,10 +1189,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1266633748"/>
+        <c:crossAx val="989658468"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1266633748"/>
+        <c:axId val="989658468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1267,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241687447"/>
+        <c:crossAx val="1818527385"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1368,12 +1368,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$30:$C$40</c:f>
+              <c:f>'Sprint Plannig'!$C$30:$C$41</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$D$30:$D$40</c:f>
+              <c:f>'Sprint Plannig'!$D$30:$D$41</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1418,12 +1418,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$30:$C$40</c:f>
+              <c:f>'Sprint Plannig'!$C$30:$C$41</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$G$30:$G$40</c:f>
+              <c:f>'Sprint Plannig'!$G$30:$G$41</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1433,21 +1433,21 @@
           <c:order val="2"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$30:$C$40</c:f>
+              <c:f>'Sprint Plannig'!$C$30:$C$41</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$H$30:$H$40</c:f>
+              <c:f>'Sprint Plannig'!$H$30:$H$41</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1861967266"/>
-        <c:axId val="556590986"/>
+        <c:axId val="940065747"/>
+        <c:axId val="1540033591"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1861967266"/>
+        <c:axId val="940065747"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,10 +1499,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556590986"/>
+        <c:crossAx val="1540033591"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="556590986"/>
+        <c:axId val="1540033591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1577,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861967266"/>
+        <c:crossAx val="940065747"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1678,12 +1678,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$41:$C$44</c:f>
+              <c:f>'Sprint Plannig'!$C$42:$C$45</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$D$41:$D$44</c:f>
+              <c:f>'Sprint Plannig'!$D$42:$D$45</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1728,12 +1728,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$41:$C$44</c:f>
+              <c:f>'Sprint Plannig'!$C$42:$C$45</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$G$41:$G$44</c:f>
+              <c:f>'Sprint Plannig'!$G$42:$G$45</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1743,21 +1743,21 @@
           <c:order val="2"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$41:$C$44</c:f>
+              <c:f>'Sprint Plannig'!$C$42:$C$45</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$H$41:$H$44</c:f>
+              <c:f>'Sprint Plannig'!$H$42:$H$45</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1041176480"/>
-        <c:axId val="1846378430"/>
+        <c:axId val="1942957594"/>
+        <c:axId val="421191584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1041176480"/>
+        <c:axId val="1942957594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,10 +1809,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846378430"/>
+        <c:crossAx val="421191584"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1846378430"/>
+        <c:axId val="421191584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1887,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1041176480"/>
+        <c:crossAx val="1942957594"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1953,7 +1953,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$B$44:$F$44</c:f>
+              <c:f>'Sprint Plannig'!$B$46:$F$46</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2011,16 +2011,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$G$44:$H$44</c:f>
+              <c:f>'Sprint Plannig'!$G$46:$H$46</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="360238275"/>
-        <c:axId val="1059114022"/>
+        <c:axId val="259221603"/>
+        <c:axId val="1496638210"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360238275"/>
+        <c:axId val="259221603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,10 +2072,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1059114022"/>
+        <c:crossAx val="1496638210"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1059114022"/>
+        <c:axId val="1496638210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360238275"/>
+        <c:crossAx val="259221603"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2351,7 +2351,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:I45" displayName="Sprint_Planning" name="Sprint_Planning" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:I46" displayName="Sprint_Planning" name="Sprint_Planning" id="1">
   <tableColumns count="8">
     <tableColumn name="Sprint" id="1"/>
     <tableColumn name="Nombre de Tarea" id="2"/>
@@ -2858,7 +2858,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E16" s="17">
         <v>45573.0</v>
@@ -2879,7 +2879,7 @@
     <row r="17">
       <c r="B17" s="20"/>
       <c r="C17" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>11</v>
@@ -2903,7 +2903,7 @@
     <row r="18">
       <c r="B18" s="14"/>
       <c r="C18" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>11</v>
@@ -2927,7 +2927,7 @@
     <row r="19">
       <c r="B19" s="20"/>
       <c r="C19" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>11</v>
@@ -2951,7 +2951,7 @@
     <row r="20">
       <c r="B20" s="14"/>
       <c r="C20" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>11</v>
@@ -2975,7 +2975,7 @@
     <row r="21">
       <c r="B21" s="20"/>
       <c r="C21" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>11</v>
@@ -2999,7 +2999,7 @@
     <row r="22">
       <c r="B22" s="14"/>
       <c r="C22" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>11</v>
@@ -3023,7 +3023,7 @@
     <row r="23">
       <c r="B23" s="20"/>
       <c r="C23" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>11</v>
@@ -3047,10 +3047,10 @@
     <row r="24">
       <c r="B24" s="14"/>
       <c r="C24" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E24" s="17">
         <v>45579.0</v>
@@ -3071,10 +3071,10 @@
     <row r="25">
       <c r="B25" s="20"/>
       <c r="C25" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E25" s="23">
         <v>45581.0</v>
@@ -3095,10 +3095,10 @@
     <row r="26">
       <c r="B26" s="14"/>
       <c r="C26" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E26" s="17">
         <v>45582.0</v>
@@ -3119,7 +3119,7 @@
     <row r="27">
       <c r="B27" s="20"/>
       <c r="C27" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>11</v>
@@ -3143,7 +3143,7 @@
     <row r="28">
       <c r="B28" s="14"/>
       <c r="C28" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>11</v>
@@ -3167,10 +3167,10 @@
     <row r="29">
       <c r="B29" s="20"/>
       <c r="C29" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E29" s="23">
         <v>45583.0</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="30">
       <c r="B30" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -3202,41 +3202,41 @@
     </row>
     <row r="31">
       <c r="B31" s="20"/>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="E31" s="31">
         <v>45586.0</v>
       </c>
       <c r="F31" s="31">
-        <v>45588.0</v>
+        <v>45587.0</v>
       </c>
       <c r="G31" s="24">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H31" s="24">
         <v>0.0</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="14"/>
       <c r="C32" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="33">
-        <v>45589.0</v>
+        <v>45586.0</v>
       </c>
       <c r="F32" s="33">
-        <v>45591.0</v>
+        <v>45587.0</v>
       </c>
       <c r="G32" s="18">
         <v>5.0</v>
@@ -3245,22 +3245,22 @@
         <v>0.0</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="20"/>
       <c r="C33" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="31">
-        <v>45593.0</v>
+        <v>45586.0</v>
       </c>
       <c r="F33" s="31">
-        <v>45595.0</v>
+        <v>45587.0</v>
       </c>
       <c r="G33" s="24">
         <v>5.0</v>
@@ -3269,22 +3269,22 @@
         <v>0.0</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="14"/>
       <c r="C34" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="33">
-        <v>45596.0</v>
+        <v>45588.0</v>
       </c>
       <c r="F34" s="33">
-        <v>45598.0</v>
+        <v>45589.0</v>
       </c>
       <c r="G34" s="18">
         <v>5.0</v>
@@ -3293,22 +3293,22 @@
         <v>0.0</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="20"/>
       <c r="C35" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="31">
-        <v>45600.0</v>
+        <v>45588.0</v>
       </c>
       <c r="F35" s="31">
-        <v>45602.0</v>
+        <v>45589.0</v>
       </c>
       <c r="G35" s="24">
         <v>5.0</v>
@@ -3317,70 +3317,70 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="14"/>
-      <c r="C36" s="32" t="s">
-        <v>48</v>
+      <c r="C36" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" s="33">
-        <v>45603.0</v>
+        <v>45590.0</v>
       </c>
       <c r="F36" s="33">
-        <v>45604.0</v>
+        <v>45594.0</v>
       </c>
       <c r="G36" s="18">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="H36" s="18">
         <v>0.0</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="20"/>
-      <c r="C37" s="27" t="s">
-        <v>49</v>
+      <c r="C37" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" s="31">
-        <v>45605.0</v>
+        <v>45590.0</v>
       </c>
       <c r="F37" s="31">
-        <v>45605.0</v>
+        <v>45594.0</v>
       </c>
       <c r="G37" s="24">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="H37" s="24">
         <v>0.0</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="14"/>
-      <c r="C38" s="26" t="s">
-        <v>50</v>
+      <c r="C38" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="33">
-        <v>45605.0</v>
+        <v>45593.0</v>
       </c>
       <c r="F38" s="33">
-        <v>45605.0</v>
+        <v>45593.0</v>
       </c>
       <c r="G38" s="18">
         <v>2.0</v>
@@ -3389,22 +3389,22 @@
         <v>0.0</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="20"/>
-      <c r="C39" s="27" t="s">
-        <v>51</v>
+      <c r="C39" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" s="31">
-        <v>45605.0</v>
+        <v>45593.0</v>
       </c>
       <c r="F39" s="31">
-        <v>45605.0</v>
+        <v>45593.0</v>
       </c>
       <c r="G39" s="24">
         <v>2.0</v>
@@ -3413,76 +3413,76 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="14"/>
-      <c r="C40" s="15" t="s">
-        <v>52</v>
+      <c r="C40" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="33">
-        <v>45607.0</v>
+        <v>45626.0</v>
       </c>
       <c r="F40" s="33">
-        <v>45619.0</v>
+        <v>45626.0</v>
       </c>
       <c r="G40" s="18">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" s="18">
         <v>0.0</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="13"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="31">
+        <v>45597.0</v>
+      </c>
+      <c r="F41" s="31">
+        <v>45619.0</v>
+      </c>
+      <c r="G41" s="24">
+        <v>15.0</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="14"/>
-      <c r="C42" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="33">
-        <v>45621.0</v>
-      </c>
-      <c r="F42" s="33">
-        <v>45640.0</v>
-      </c>
-      <c r="G42" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="H42" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="B42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43">
       <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
-        <v>55</v>
+      <c r="C43" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" s="31">
         <v>45621.0</v>
@@ -3497,16 +3497,16 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="14"/>
       <c r="C44" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" s="33">
         <v>45621.0</v>
@@ -3521,33 +3521,57 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="31">
+        <v>45621.0</v>
+      </c>
+      <c r="F45" s="31">
+        <v>45640.0</v>
+      </c>
+      <c r="G45" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="H45" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="39">
-        <f t="shared" ref="G45:H45" si="1">SUM(G5:G44)</f>
-        <v>204</v>
-      </c>
-      <c r="H45" s="39">
+      <c r="G46" s="39">
+        <f t="shared" ref="G46:H46" si="1">SUM(G5:G45)</f>
+        <v>210</v>
+      </c>
+      <c r="H46" s="39">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="I45" s="40"/>
+      <c r="I46" s="40"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D5:D45">
+    <dataValidation type="list" allowBlank="1" sqref="D5:D46">
       <formula1>"Terminado,Desarrollo,No empezado,Atrasado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I5:I45">
+    <dataValidation type="list" allowBlank="1" sqref="I5:I46">
       <formula1>"Scrum master,Scrum team,Sebastian Gonzalez,Sebastian Pardo,Sin asignar"</formula1>
     </dataValidation>
   </dataValidations>
